--- a/textToOps/data/raw/DataCorpus_classfied_중분류_2차 연구.xlsx
+++ b/textToOps/data/raw/DataCorpus_classfied_중분류_2차 연구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750685D2-5CA9-034F-891D-CD42917707FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91D143-7740-7040-A1DA-87589EC82EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2587,9 +2587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="108" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2675,7 +2675,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" ht="16">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="16">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" ht="16">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="16">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="16">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="16">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="16">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="16">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="16">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="16">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="16">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="16">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="16">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="16">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="16">
       <c r="A26" t="s">
         <v>542</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="16">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="16">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="16">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="16">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="16">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="16">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" ht="16">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="16">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" ht="16">
       <c r="A56" t="s">
         <v>399</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" ht="16">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" ht="16">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" ht="16">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" ht="16">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" ht="16">
       <c r="A69" t="s">
         <v>551</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" ht="16">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" ht="16">
       <c r="A95" t="s">
         <v>532</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" ht="16">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" ht="16">
       <c r="A106" t="s">
         <v>513</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" ht="16">
       <c r="A110" t="s">
         <v>42</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" ht="16">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" ht="16">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" ht="16">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" ht="16">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" ht="16">
       <c r="A137" t="s">
         <v>85</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" ht="16">
       <c r="A138" t="s">
         <v>91</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" ht="16">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" ht="16">
       <c r="A141" t="s">
         <v>554</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" ht="16">
       <c r="A144" t="s">
         <v>82</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" ht="16">
       <c r="A145" t="s">
         <v>40</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" ht="16">
       <c r="A146" t="s">
         <v>56</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" ht="16">
       <c r="A147" t="s">
         <v>517</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" ht="16">
       <c r="A148" t="s">
         <v>520</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" ht="16">
       <c r="A149" t="s">
         <v>519</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" ht="16">
       <c r="A150" t="s">
         <v>44</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" ht="16">
       <c r="A151" t="s">
         <v>518</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" ht="16">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" ht="16">
       <c r="A154" t="s">
         <v>106</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" ht="16">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" ht="16">
       <c r="A156" t="s">
         <v>104</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" ht="16">
       <c r="A157" t="s">
         <v>93</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" ht="16">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" ht="16">
       <c r="A159" t="s">
         <v>105</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" ht="16">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" ht="16">
       <c r="A162" t="s">
         <v>68</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" ht="16">
       <c r="A163" t="s">
         <v>110</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="16">
+    <row r="167" spans="1:21">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" ht="16">
       <c r="A173" t="s">
         <v>51</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" ht="16">
       <c r="A174" t="s">
         <v>74</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" ht="16">
       <c r="A175" t="s">
         <v>75</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" ht="16">
       <c r="A177" t="s">
         <v>107</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" ht="16">
       <c r="A178" t="s">
         <v>81</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" ht="16">
       <c r="A179" t="s">
         <v>154</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" ht="16">
       <c r="A181" t="s">
         <v>175</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" ht="16">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" ht="16">
       <c r="A183" t="s">
         <v>122</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" ht="16">
       <c r="A184" t="s">
         <v>57</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" ht="16">
       <c r="A185" t="s">
         <v>135</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" ht="16">
       <c r="A186" t="s">
         <v>152</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" ht="16">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" ht="16">
       <c r="A188" t="s">
         <v>150</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" ht="16">
       <c r="A189" t="s">
         <v>151</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" ht="16">
       <c r="A190" t="s">
         <v>138</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" ht="16">
       <c r="A191" t="s">
         <v>139</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" ht="16">
       <c r="A192" t="s">
         <v>137</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" ht="16">
       <c r="A193" t="s">
         <v>136</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" ht="16">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" ht="16">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" ht="16">
       <c r="A196" t="s">
         <v>157</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" ht="16">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" ht="16">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" ht="16">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" ht="16">
       <c r="A204" t="s">
         <v>64</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" ht="16">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" ht="16">
       <c r="A206" t="s">
         <v>28</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" ht="16">
       <c r="A215" t="s">
         <v>161</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" ht="16">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" ht="16">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" ht="16">
       <c r="A225" t="s">
         <v>537</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" ht="16">
       <c r="A228" t="s">
         <v>141</v>
       </c>
